--- a/groups/23-24-Univers/tasks_results/all.xlsx
+++ b/groups/23-24-Univers/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="153">
   <si>
     <t>Описание</t>
   </si>
@@ -915,7 +915,7 @@
         <v>46</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>29</v>
@@ -1234,8 +1234,11 @@
       <c r="C29" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D29" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1530,8 +1533,11 @@
       <c r="C54" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6">

--- a/groups/23-24-Univers/tasks_results/all.xlsx
+++ b/groups/23-24-Univers/tasks_results/all.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="153">
   <si>
     <t>Описание</t>
   </si>
@@ -912,13 +912,13 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>17</v>
@@ -1793,6 +1793,15 @@
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>94</v>

--- a/groups/23-24-Univers/tasks_results/all.xlsx
+++ b/groups/23-24-Univers/tasks_results/all.xlsx
@@ -268,6 +268,9 @@
     <t>1876</t>
   </si>
   <si>
+    <t>161D</t>
+  </si>
+  <si>
     <t>23.12.24</t>
   </si>
   <si>
@@ -370,6 +373,9 @@
     <t>1907</t>
   </si>
   <si>
+    <t>2012-2013 Тренировка СПбГУ C #8. Геометрия. База.</t>
+  </si>
+  <si>
     <t>24.01.28</t>
   </si>
   <si>
@@ -448,6 +454,18 @@
     <t>1827</t>
   </si>
   <si>
+    <t>1800D</t>
+  </si>
+  <si>
+    <t>1800G</t>
+  </si>
+  <si>
+    <t>2012-2013 Тренировка СПбГУ C #10. Строки.</t>
+  </si>
+  <si>
+    <t>59C</t>
+  </si>
+  <si>
     <t>24.03.03</t>
   </si>
   <si>
@@ -458,24 +476,6 @@
   </si>
   <si>
     <t>1824</t>
-  </si>
-  <si>
-    <t>161D</t>
-  </si>
-  <si>
-    <t>2012-2013 Тренировка СПбГУ C #8. Геометрия. База.</t>
-  </si>
-  <si>
-    <t>1800D</t>
-  </si>
-  <si>
-    <t>1800G</t>
-  </si>
-  <si>
-    <t>2012-2013 Тренировка СПбГУ C #10. Строки.</t>
-  </si>
-  <si>
-    <t>59C</t>
   </si>
 </sst>
 </file>
@@ -1698,32 +1698,32 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>89</v>
@@ -1731,112 +1731,112 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>68</v>
+        <v>92</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="F78" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>98</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>99</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>100</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -1868,29 +1868,29 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="C84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>104</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>105</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>106</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>107</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>108</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>109</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>110</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>111</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>112</v>
@@ -1962,168 +1962,168 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="D96" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>129</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>130</v>
@@ -2139,187 +2139,187 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>52</v>
+      <c r="D111" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="D113" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D116" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E118" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="C122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="D123" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>129</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>130</v>
@@ -2335,103 +2335,103 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>52</v>
+      <c r="D128" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D129" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="D130" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>140</v>
+        <v>85</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>141</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>142</v>
@@ -2447,222 +2447,222 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D144" s="3" t="s">
+      <c r="C150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="E150" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C151" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D151" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="2" t="s">
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>149</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>143</v>
-      </c>
-      <c r="B148" s="2" t="s">
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>143</v>
-      </c>
-      <c r="B149" s="2" t="s">
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>149</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>143</v>
-      </c>
-      <c r="B150" s="2" t="s">
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>18</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>18</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
